--- a/output/fit_clients/fit_round_405.xlsx
+++ b/output/fit_clients/fit_round_405.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2452782788.9021</v>
+        <v>1589399941.005532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1094792119148958</v>
+        <v>0.08497329547291244</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02994822232347913</v>
+        <v>0.04337601542534478</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1226391451.031693</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2065906710.788064</v>
+        <v>1999389510.4676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1509465827607717</v>
+        <v>0.1357084321527759</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04607945403969471</v>
+        <v>0.04157160582972197</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1032953405.674936</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4076420983.779326</v>
+        <v>5162500279.856114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1115524208380784</v>
+        <v>0.1550254356210339</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03057818805148507</v>
+        <v>0.02910177017231144</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>146</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2038210511.492125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3005743474.30604</v>
+        <v>2590798396.641238</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07657278802998166</v>
+        <v>0.08698700076367392</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04611842101489591</v>
+        <v>0.04061660281516355</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1502871806.668981</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1739201943.262772</v>
+        <v>1817990653.431604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1146863549230986</v>
+        <v>0.1264077307818484</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04992149644272072</v>
+        <v>0.05667333505578399</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>869601029.4643642</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2595143142.979866</v>
+        <v>2542051784.460976</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09145551425422345</v>
+        <v>0.06715668874357215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04676973070786081</v>
+        <v>0.03330286753786353</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>127</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1297571575.341136</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2540027974.676685</v>
+        <v>3925183117.693973</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1659990040224963</v>
+        <v>0.1854218809545114</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02602104057443674</v>
+        <v>0.02714596064400074</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>130</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1270013997.843459</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2219655252.931119</v>
+        <v>2203773042.259952</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1909713209064978</v>
+        <v>0.1895105944028921</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03220508058747949</v>
+        <v>0.03651457568885583</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1109827622.617995</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5322847034.47983</v>
+        <v>4338861164.442549</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1413025923716413</v>
+        <v>0.1470953778303033</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03731778224252472</v>
+        <v>0.03799395147959513</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>170</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2661423641.551922</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3519512225.824824</v>
+        <v>3956019269.382764</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1650580192055594</v>
+        <v>0.1359803320049382</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03335557226322318</v>
+        <v>0.03671480110591309</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>167</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1759756092.081118</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2300918674.589859</v>
+        <v>2146193023.235084</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1764478200033489</v>
+        <v>0.1934189772353724</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05376667026938851</v>
+        <v>0.04455221884249381</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>137</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1150459291.314418</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3896318314.609017</v>
+        <v>3770527971.202375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09305555216345017</v>
+        <v>0.06802540265432115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02157875280626534</v>
+        <v>0.02560952348511145</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>136</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1948159217.513828</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2401105824.971292</v>
+        <v>3413316982.570826</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1591656638993428</v>
+        <v>0.1593547175058557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03168105156041148</v>
+        <v>0.04094277288514055</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1200552990.310773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1369320167.158457</v>
+        <v>1308078189.392067</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1055170597264941</v>
+        <v>0.08183654037794098</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03606675272047909</v>
+        <v>0.03979139115658228</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>684660139.4664217</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2211304784.754436</v>
+        <v>2664366118.106955</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07904619816264424</v>
+        <v>0.08743071522514126</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04010829016953605</v>
+        <v>0.03873476998644094</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1105652448.997979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3956249853.450186</v>
+        <v>3229742653.89343</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1096564947523464</v>
+        <v>0.1555800596004976</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05161942542388652</v>
+        <v>0.03987261791693408</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1978124963.509803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2953942714.186653</v>
+        <v>3453337717.291564</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1709397298704691</v>
+        <v>0.1365959425153269</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0337660431559305</v>
+        <v>0.03146476248489682</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>132</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1476971390.679135</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1199606410.712187</v>
+        <v>980838604.5546511</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1221468491014498</v>
+        <v>0.1606943861290897</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01704480197103733</v>
+        <v>0.02401318862574125</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>599803283.1723726</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2037975386.630367</v>
+        <v>2798757887.388426</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1148016454134596</v>
+        <v>0.1240911115466414</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03053137884686716</v>
+        <v>0.0289246338170917</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>54</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1018987715.642626</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2024422377.812975</v>
+        <v>2351047936.311707</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06629234941280147</v>
+        <v>0.06405722245139077</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03173243293540499</v>
+        <v>0.03823160438044402</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1012211222.514235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3455872766.985017</v>
+        <v>2895896722.497675</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09689244912829202</v>
+        <v>0.1029722994252093</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04906287066918551</v>
+        <v>0.03511912412516164</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1727936417.741753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1279505858.10492</v>
+        <v>1241145863.628605</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1141935149572793</v>
+        <v>0.1130782249158271</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04673558322100155</v>
+        <v>0.04040909994383685</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>639752952.1547197</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2757412360.149353</v>
+        <v>3773307965.224576</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1327942947670295</v>
+        <v>0.1215216172857988</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02539365006499424</v>
+        <v>0.02409723777090721</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>119</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1378706231.644375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1342142343.807747</v>
+        <v>1124793828.74491</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0973700737903188</v>
+        <v>0.1097195034602987</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02533561242722856</v>
+        <v>0.02332354165599347</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>671071157.1774797</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>953828912.8234543</v>
+        <v>998098689.4518629</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1220675692244326</v>
+        <v>0.101285823348289</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03571847777464942</v>
+        <v>0.02820928203570939</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>476914417.1837828</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4378393565.979268</v>
+        <v>4485110645.635507</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1377775320205889</v>
+        <v>0.1262145210598513</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02398776588232081</v>
+        <v>0.0200662725956001</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2189196774.385325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2341817455.866315</v>
+        <v>3228961929.156437</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1282244593543933</v>
+        <v>0.104038813420975</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04282940611733824</v>
+        <v>0.03746338126962036</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1170908682.038674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4188149127.035961</v>
+        <v>5700513589.718873</v>
       </c>
       <c r="F29" t="n">
-        <v>0.147965100798198</v>
+        <v>0.1007473889124355</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03071706484506638</v>
+        <v>0.03440081590212715</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>178</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2094074567.311223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2090147017.565791</v>
+        <v>2242345359.559721</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09629434498545632</v>
+        <v>0.1171068277441875</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03456359293363696</v>
+        <v>0.0257985612904113</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1045073556.524565</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1179704225.755641</v>
+        <v>1335311358.733216</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1124118397354485</v>
+        <v>0.1109871708815846</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05058725358482855</v>
+        <v>0.03866146562098245</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>589852069.1382723</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1174363964.749652</v>
+        <v>1493814345.869651</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1132579506755183</v>
+        <v>0.1120527806076747</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02422976915750952</v>
+        <v>0.02819081820581431</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>587181983.2939798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2625718085.010611</v>
+        <v>2779212470.416104</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1804043630826407</v>
+        <v>0.1425016787818931</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04529451040737272</v>
+        <v>0.03784361490761948</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>121</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1312859070.044579</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1315830913.957316</v>
+        <v>1525030646.166204</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08186953965391935</v>
+        <v>0.0864705468359009</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02063817484965404</v>
+        <v>0.02768901753628211</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>657915443.0357021</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1326175600.301595</v>
+        <v>1047438528.83796</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08136761441359305</v>
+        <v>0.07361736432007784</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03566080357815365</v>
+        <v>0.03997401219696391</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>663087747.226912</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2939324797.707421</v>
+        <v>2239403421.786089</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1149331367901826</v>
+        <v>0.1206281148938485</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01869131013375387</v>
+        <v>0.02617955032443523</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>101</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1469662385.646345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2676953307.546246</v>
+        <v>2046238001.418518</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1043971926533622</v>
+        <v>0.06916540916057111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03425299953217308</v>
+        <v>0.03364241473386054</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>108</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1338476774.172231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1532763254.029916</v>
+        <v>2073990122.944785</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07688690640074028</v>
+        <v>0.08622429001476217</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03379621812027582</v>
+        <v>0.02957907590527728</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>766381671.6559027</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1645928362.22496</v>
+        <v>1743109393.242453</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1505859614299573</v>
+        <v>0.1750414549022823</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02617699128898218</v>
+        <v>0.02599575353294024</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>822964229.4423195</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1780794460.180187</v>
+        <v>1682240888.037204</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1006694365513758</v>
+        <v>0.1219732373547917</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05842973073437008</v>
+        <v>0.05080826020221076</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>890397126.0186845</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2111675602.888904</v>
+        <v>2084647702.744031</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1117276476441726</v>
+        <v>0.1473193545920704</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03044487440617129</v>
+        <v>0.0412162206130281</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>103</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1055837864.798186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3120742245.662324</v>
+        <v>3922385297.853858</v>
       </c>
       <c r="F42" t="n">
-        <v>0.108645462845082</v>
+        <v>0.1164334111413831</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02807876331699574</v>
+        <v>0.02862056551911811</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1560371091.590727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2957455520.69678</v>
+        <v>2498518578.310127</v>
       </c>
       <c r="F43" t="n">
-        <v>0.190055257118076</v>
+        <v>0.1911844602242939</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02239852805275462</v>
+        <v>0.01856192846013306</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>142</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1478727763.027804</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2016262218.444014</v>
+        <v>1811342025.332877</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06398299786404697</v>
+        <v>0.06729462777424638</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02764560449141805</v>
+        <v>0.02922998065450002</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1008131218.828249</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2132864064.218862</v>
+        <v>2370502751.877218</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1185636522399673</v>
+        <v>0.1199881962101557</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03895279562775364</v>
+        <v>0.03526845714600728</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1066432036.369784</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3480631967.370095</v>
+        <v>5029292853.875887</v>
       </c>
       <c r="F46" t="n">
-        <v>0.129889677686286</v>
+        <v>0.1658962532197655</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04237503991133009</v>
+        <v>0.04651162959390433</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>144</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1740315923.492885</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3526588574.97822</v>
+        <v>3517587634.533783</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1294063487334845</v>
+        <v>0.1301727373205416</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04266620372335136</v>
+        <v>0.05013466369190401</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1763294259.819631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3404015578.661243</v>
+        <v>4344429546.266891</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1088427942643205</v>
+        <v>0.09285271320791869</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02435545801645242</v>
+        <v>0.02688766947321449</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1702007858.332829</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1211077494.38129</v>
+        <v>1256514549.113703</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1781848850004376</v>
+        <v>0.1603073911536</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02739892147617065</v>
+        <v>0.04205897151321823</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>605538824.1594398</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3942508313.382069</v>
+        <v>3479775984.723309</v>
       </c>
       <c r="F50" t="n">
-        <v>0.177829388896028</v>
+        <v>0.1730788040103328</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04181706878872089</v>
+        <v>0.04643512726228866</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>138</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1971254149.506679</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1101188222.662987</v>
+        <v>1477870818.96679</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1826684631967488</v>
+        <v>0.1190661743445936</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04536437984135561</v>
+        <v>0.05109316556210237</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>550594178.9176952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5095758294.563555</v>
+        <v>3638789988.093615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1140748178831589</v>
+        <v>0.1288803998199704</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0412571147125002</v>
+        <v>0.05856640756141303</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>166</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2547879139.2878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2952857480.123009</v>
+        <v>2595052462.02437</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1825568655555632</v>
+        <v>0.1796912585881191</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03291128738423748</v>
+        <v>0.03383372766537945</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1476428775.76913</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3797963357.871814</v>
+        <v>4180662644.904745</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1209887485515946</v>
+        <v>0.1695736286863316</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04810670750100357</v>
+        <v>0.04876868776035487</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>132</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1898981727.164976</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4736143219.618191</v>
+        <v>4601603670.92883</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1720341315623253</v>
+        <v>0.2101342254798113</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02650060019042875</v>
+        <v>0.02445622948092802</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2368071617.208444</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1215164414.861994</v>
+        <v>1552028230.275672</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1362303688056221</v>
+        <v>0.1194468379115183</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04465812025363387</v>
+        <v>0.04253088850388329</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>607582291.8800923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3445642548.780227</v>
+        <v>3009296015.356002</v>
       </c>
       <c r="F57" t="n">
-        <v>0.171545846556714</v>
+        <v>0.1545475461566349</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02582979465065972</v>
+        <v>0.02130427094645108</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1722821316.227521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1572892234.812644</v>
+        <v>1462423232.328931</v>
       </c>
       <c r="F58" t="n">
-        <v>0.175187181420402</v>
+        <v>0.1597695921051647</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02962102527648927</v>
+        <v>0.02976189930356628</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>786446141.9166108</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4817395692.561181</v>
+        <v>3955501204.957188</v>
       </c>
       <c r="F59" t="n">
-        <v>0.122843395753536</v>
+        <v>0.08326579528085774</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04630849692280307</v>
+        <v>0.03921581010985345</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2408697782.822787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2275348076.545306</v>
+        <v>2855089759.74934</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1488892598496911</v>
+        <v>0.1561528595148201</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03224051542973753</v>
+        <v>0.02444911891589984</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>125</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1137674032.624761</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2968349592.260833</v>
+        <v>3196564324.151677</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1694261314402599</v>
+        <v>0.1677163677212224</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02867429932953961</v>
+        <v>0.02753985212548664</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>139</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1484174779.599138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1531599109.567377</v>
+        <v>1897857869.571938</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1362981147104382</v>
+        <v>0.1672183203999509</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03508482785540439</v>
+        <v>0.03033698602743002</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>765799542.5685827</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3817146692.740741</v>
+        <v>4588062740.763954</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1078446019773127</v>
+        <v>0.08203319182341537</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03360932365707944</v>
+        <v>0.03512281823243511</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1908573416.954449</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3806219709.524864</v>
+        <v>4827829951.47652</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1490927018053878</v>
+        <v>0.1317742493118489</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03103271252189408</v>
+        <v>0.03561670468514078</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>126</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1903109877.006735</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4200790213.536542</v>
+        <v>4724265564.602774</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1297997836793355</v>
+        <v>0.1578613497362498</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02879963204564072</v>
+        <v>0.03188539789766238</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>146</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2100395113.385363</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5596273158.927515</v>
+        <v>5355712119.792566</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1374819122524995</v>
+        <v>0.1486546123580992</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03902213716929393</v>
+        <v>0.04526295033448067</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2798136638.565457</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3148666358.930903</v>
+        <v>2306227627.53779</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09527281407336285</v>
+        <v>0.06540756536790872</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04739072573569798</v>
+        <v>0.03816244180075339</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>130</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1574333185.189123</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4989318038.781251</v>
+        <v>4348998244.738118</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1583304622999343</v>
+        <v>0.1347471092435973</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04953399925452019</v>
+        <v>0.04310835453439685</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2494659075.138452</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1797107377.635688</v>
+        <v>1928569116.519835</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1509327681092473</v>
+        <v>0.1707817798019428</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05033785386571156</v>
+        <v>0.05579735376208095</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>898553667.5329151</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2271753315.283721</v>
+        <v>3423272014.120816</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06689336793446814</v>
+        <v>0.08167518850883081</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03913639428112891</v>
+        <v>0.03377347176513804</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>115</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1135876587.326608</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5297418748.199215</v>
+        <v>3478548924.226608</v>
       </c>
       <c r="F71" t="n">
-        <v>0.149918690837658</v>
+        <v>0.1163200644348664</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0288196560565342</v>
+        <v>0.02625369901110288</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>148</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2648709502.024413</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1742610910.897182</v>
+        <v>1951555449.100401</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1000951785282723</v>
+        <v>0.07815216427910031</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04665831711368217</v>
+        <v>0.03457464303037838</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>871305443.3163096</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2311241268.294679</v>
+        <v>2282295035.582228</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09940364909655673</v>
+        <v>0.1104233877763899</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04288444043117022</v>
+        <v>0.03559817298601681</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>154</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1155620693.224683</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3863956238.234111</v>
+        <v>3331229991.168115</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1669418015414828</v>
+        <v>0.1762385616611133</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03325494374365764</v>
+        <v>0.02696808646578877</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>138</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1931978109.851072</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2245656484.129675</v>
+        <v>2408228768.478927</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1556471953903855</v>
+        <v>0.130290649395237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03158797465900934</v>
+        <v>0.03468264662816854</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1122828183.23673</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3263625596.968064</v>
+        <v>4125882399.03268</v>
       </c>
       <c r="F76" t="n">
-        <v>0.122639035225559</v>
+        <v>0.0891120592962335</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02935065739209381</v>
+        <v>0.02775934976057953</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1631812752.363368</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1622411738.803454</v>
+        <v>2085935540.473717</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1283811029249714</v>
+        <v>0.1545098101425531</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01947173613538583</v>
+        <v>0.02051122851562499</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>811205875.142778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3692241933.655472</v>
+        <v>2900965940.015047</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1227539279637572</v>
+        <v>0.09288838525294817</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05197665271371164</v>
+        <v>0.0466082608141784</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>140</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1846120954.608724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1735107208.172081</v>
+        <v>1677412444.694535</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1256365735249486</v>
+        <v>0.1179604248537636</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03445283954064586</v>
+        <v>0.03114686105488594</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>867553679.4305394</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3414425867.12909</v>
+        <v>3540005531.929805</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09547762794567957</v>
+        <v>0.09810638018897455</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03662923290100753</v>
+        <v>0.02731842000889439</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1707212903.911969</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4471451090.56287</v>
+        <v>3352177591.352763</v>
       </c>
       <c r="F81" t="n">
-        <v>0.114994143485414</v>
+        <v>0.09759162006751758</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02859146759501805</v>
+        <v>0.02924472977455286</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2235725525.995013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5053304360.118939</v>
+        <v>4933604020.548932</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1491526805669905</v>
+        <v>0.1918693554981113</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02644647109107124</v>
+        <v>0.02151362159570936</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2526652161.056497</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1791508024.525806</v>
+        <v>2135771341.531314</v>
       </c>
       <c r="F83" t="n">
-        <v>0.103275345908457</v>
+        <v>0.1561299579441502</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04305026773735533</v>
+        <v>0.03448242942803303</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>895753971.607767</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2040045510.243854</v>
+        <v>1861389386.634169</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07539552044693933</v>
+        <v>0.09805796947713863</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04879258578942164</v>
+        <v>0.03224202609255515</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1020022754.266165</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3508332866.330966</v>
+        <v>2426795903.170871</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1112517694442028</v>
+        <v>0.1760750150097006</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03816462203558101</v>
+        <v>0.04088906425753238</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>152</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1754166549.439554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2267264652.462663</v>
+        <v>1879546986.581973</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1163551118246697</v>
+        <v>0.1158736438775373</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01690556120049541</v>
+        <v>0.02630060109305162</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1133632391.046468</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1496576722.501878</v>
+        <v>1079487720.655168</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1613941427732898</v>
+        <v>0.1574884883638412</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03132649849309267</v>
+        <v>0.02762450969952977</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>748288492.8635339</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3218283540.614966</v>
+        <v>3555829226.768</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1531643804789997</v>
+        <v>0.1688782575349903</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03853986717798783</v>
+        <v>0.03490687786792585</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>159</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1609141822.335886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3144068997.205096</v>
+        <v>2672672039.636004</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1002521348902117</v>
+        <v>0.1377136386647102</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03040144408717947</v>
+        <v>0.02791123459694056</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>136</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1572034526.159871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1696319127.047367</v>
+        <v>1934974072.606285</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1288403278010443</v>
+        <v>0.0851440550990817</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04496264998200296</v>
+        <v>0.04680240084432656</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>848159578.2349459</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1800279857.986136</v>
+        <v>1701518387.257762</v>
       </c>
       <c r="F91" t="n">
-        <v>0.178755838848341</v>
+        <v>0.1592340713081586</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05179301738131723</v>
+        <v>0.03968254412060702</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>900139927.8986658</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2928174713.259218</v>
+        <v>2289349045.898861</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09819049524247012</v>
+        <v>0.07603527219962833</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0305819564383856</v>
+        <v>0.03750463395512517</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>115</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1464087372.923003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4450946808.792397</v>
+        <v>3180798752.84359</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1081551049964995</v>
+        <v>0.110804901787143</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03681291771295325</v>
+        <v>0.0443279913430757</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2225473375.878014</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2135069386.376476</v>
+        <v>2391804631.605553</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1139053365214414</v>
+        <v>0.1621920102671778</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03890294078080844</v>
+        <v>0.0409813562149228</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1067534709.143898</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3131610648.975256</v>
+        <v>2482525873.098188</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09875126726632222</v>
+        <v>0.1281336906901019</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03564157699196173</v>
+        <v>0.03801226811020111</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>98</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1565805314.696875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1602845304.599716</v>
+        <v>2398956105.726861</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1257121499381218</v>
+        <v>0.1156976367740343</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0313454182616956</v>
+        <v>0.04626550978842273</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>801422681.6896524</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3686397297.82107</v>
+        <v>4356848042.135</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1461685931575376</v>
+        <v>0.1222444631766709</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02832287854441185</v>
+        <v>0.02332173954763988</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>131</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1843198680.076729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3646519167.861155</v>
+        <v>3638951400.965797</v>
       </c>
       <c r="F98" t="n">
-        <v>0.101277436141394</v>
+        <v>0.1263547290352667</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02218207398017095</v>
+        <v>0.02582201362140476</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1823259612.465797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2678087071.206709</v>
+        <v>2998988330.008267</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08999310517328417</v>
+        <v>0.1208824273872626</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03371460882784981</v>
+        <v>0.02758194823947814</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>127</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1339043498.251898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4383009429.403318</v>
+        <v>4344767335.53548</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1658357765465317</v>
+        <v>0.1255783322119973</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02672350680725738</v>
+        <v>0.01929739037692521</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2191504815.966469</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3050908033.672937</v>
+        <v>2433816119.670081</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2155202302971088</v>
+        <v>0.1670526667054203</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05289234916561913</v>
+        <v>0.05713456921213352</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>164</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1525454112.610744</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_405.xlsx
+++ b/output/fit_clients/fit_round_405.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1589399941.005532</v>
+        <v>2225686780.455206</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08497329547291244</v>
+        <v>0.08220620296633427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04337601542534478</v>
+        <v>0.03505913574773458</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1999389510.4676</v>
+        <v>1928793349.433549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1357084321527759</v>
+        <v>0.1799410447033869</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04157160582972197</v>
+        <v>0.04395436124929494</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5162500279.856114</v>
+        <v>4261122423.262887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1550254356210339</v>
+        <v>0.1384323977986229</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02910177017231144</v>
+        <v>0.03528064827307163</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2590798396.641238</v>
+        <v>2644704292.826292</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08698700076367392</v>
+        <v>0.1003410715325011</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04061660281516355</v>
+        <v>0.03094954642076586</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1817990653.431604</v>
+        <v>1951129463.041822</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1264077307818484</v>
+        <v>0.1393739406041185</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05667333505578399</v>
+        <v>0.04111120310724651</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2542051784.460976</v>
+        <v>1977283636.502669</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06715668874357215</v>
+        <v>0.1012264318603438</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03330286753786353</v>
+        <v>0.03493128442230366</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3925183117.693973</v>
+        <v>3761485568.762726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1854218809545114</v>
+        <v>0.18741723213765</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02714596064400074</v>
+        <v>0.02666578877045182</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2203773042.259952</v>
+        <v>1543845170.40911</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1895105944028921</v>
+        <v>0.1525986949294602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03651457568885583</v>
+        <v>0.03079956103047139</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4338861164.442549</v>
+        <v>3942701393.267447</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1470953778303033</v>
+        <v>0.2034545535019576</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03799395147959513</v>
+        <v>0.04094823454585878</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3956019269.382764</v>
+        <v>3563367653.341754</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1359803320049382</v>
+        <v>0.1592678971144888</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03671480110591309</v>
+        <v>0.04273002140578269</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2146193023.235084</v>
+        <v>2053556462.596445</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1934189772353724</v>
+        <v>0.1235577133478166</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04455221884249381</v>
+        <v>0.03682390386245729</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3770527971.202375</v>
+        <v>4733750756.306429</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06802540265432115</v>
+        <v>0.08093128373698161</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02560952348511145</v>
+        <v>0.02614220391294494</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3413316982.570826</v>
+        <v>2911073276.894714</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1593547175058557</v>
+        <v>0.115583285474425</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04094277288514055</v>
+        <v>0.03102713227652816</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1308078189.392067</v>
+        <v>1457567229.525183</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08183654037794098</v>
+        <v>0.09311375462311347</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03979139115658228</v>
+        <v>0.03637818825750182</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2664366118.106955</v>
+        <v>1801119573.145776</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08743071522514126</v>
+        <v>0.08401164889319283</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03873476998644094</v>
+        <v>0.03674870729822834</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3229742653.89343</v>
+        <v>3417754561.317635</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1555800596004976</v>
+        <v>0.1272289374358055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03987261791693408</v>
+        <v>0.03222544896958774</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3453337717.291564</v>
+        <v>3305795956.472731</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1365959425153269</v>
+        <v>0.1544793274927357</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03146476248489682</v>
+        <v>0.02789323997293751</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>980838604.5546511</v>
+        <v>1053515379.051125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1606943861290897</v>
+        <v>0.1581298240748907</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02401318862574125</v>
+        <v>0.02748663928609973</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2798757887.388426</v>
+        <v>2063103065.044614</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1240911115466414</v>
+        <v>0.1351412856010047</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0289246338170917</v>
+        <v>0.02726184296870146</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2351047936.311707</v>
+        <v>2082727137.163687</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06405722245139077</v>
+        <v>0.07512133903299502</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03823160438044402</v>
+        <v>0.03568564274568924</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2895896722.497675</v>
+        <v>3136360780.492587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1029722994252093</v>
+        <v>0.1006730601965342</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03511912412516164</v>
+        <v>0.04724168260851195</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1241145863.628605</v>
+        <v>1147715692.200866</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1130782249158271</v>
+        <v>0.1721530221458216</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04040909994383685</v>
+        <v>0.04858318942564754</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3773307965.224576</v>
+        <v>3587441629.111784</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1215216172857988</v>
+        <v>0.1384751094933887</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02409723777090721</v>
+        <v>0.02995393236374521</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1124793828.74491</v>
+        <v>1016096730.502875</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1097195034602987</v>
+        <v>0.09832177915040245</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02332354165599347</v>
+        <v>0.02467715831484312</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>998098689.4518629</v>
+        <v>1029150060.149666</v>
       </c>
       <c r="F26" t="n">
-        <v>0.101285823348289</v>
+        <v>0.108742416309</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02820928203570939</v>
+        <v>0.03630721675759415</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4485110645.635507</v>
+        <v>4410764599.00984</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1262145210598513</v>
+        <v>0.09779907744682288</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0200662725956001</v>
+        <v>0.02438403268981139</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3228961929.156437</v>
+        <v>3567582281.375041</v>
       </c>
       <c r="F28" t="n">
-        <v>0.104038813420975</v>
+        <v>0.1431828880698318</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03746338126962036</v>
+        <v>0.03897948202697248</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5700513589.718873</v>
+        <v>5081670402.225192</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1007473889124355</v>
+        <v>0.1179563292431068</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03440081590212715</v>
+        <v>0.03639659237286367</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2242345359.559721</v>
+        <v>1934260753.455923</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1171068277441875</v>
+        <v>0.08505033837922607</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0257985612904113</v>
+        <v>0.03390929901600214</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1335311358.733216</v>
+        <v>1129880011.98183</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1109871708815846</v>
+        <v>0.074692132793151</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03866146562098245</v>
+        <v>0.04345452646368189</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1493814345.869651</v>
+        <v>1349097452.818316</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1120527806076747</v>
+        <v>0.07808904546545312</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02819081820581431</v>
+        <v>0.02514135634597737</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2779212470.416104</v>
+        <v>2217986171.617681</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1425016787818931</v>
+        <v>0.1528807504164108</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03784361490761948</v>
+        <v>0.03953986919585046</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1525030646.166204</v>
+        <v>1237958606.775653</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0864705468359009</v>
+        <v>0.1058168978035287</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02768901753628211</v>
+        <v>0.02550993859036339</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1047438528.83796</v>
+        <v>1315194827.214641</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07361736432007784</v>
+        <v>0.1056509793040177</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03997401219696391</v>
+        <v>0.02857060296211465</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2239403421.786089</v>
+        <v>3009757185.594692</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1206281148938485</v>
+        <v>0.1286831071240889</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02617955032443523</v>
+        <v>0.01873815705677909</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2046238001.418518</v>
+        <v>1846181045.070045</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06916540916057111</v>
+        <v>0.06885303921097559</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03364241473386054</v>
+        <v>0.0356165782908397</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2073990122.944785</v>
+        <v>1618561401.296595</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08622429001476217</v>
+        <v>0.08791625161451039</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02957907590527728</v>
+        <v>0.02474283790985154</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1743109393.242453</v>
+        <v>1600280586.067974</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1750414549022823</v>
+        <v>0.1519359827432133</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02599575353294024</v>
+        <v>0.02309514096287053</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1682240888.037204</v>
+        <v>1148076449.335701</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1219732373547917</v>
+        <v>0.1602641326993346</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05080826020221076</v>
+        <v>0.04333349825531949</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2084647702.744031</v>
+        <v>2060542836.357877</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1473193545920704</v>
+        <v>0.1037060963608345</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0412162206130281</v>
+        <v>0.02856566217494851</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3922385297.853858</v>
+        <v>3622674420.483582</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1164334111413831</v>
+        <v>0.116859377234437</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02862056551911811</v>
+        <v>0.03434017094238045</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2498518578.310127</v>
+        <v>2003710826.307859</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1911844602242939</v>
+        <v>0.1981273984106797</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01856192846013306</v>
+        <v>0.02318566552094639</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1811342025.332877</v>
+        <v>2147298307.030638</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06729462777424638</v>
+        <v>0.09821405058400022</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02922998065450002</v>
+        <v>0.03362174444323381</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2370502751.877218</v>
+        <v>1559157413.750278</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1199881962101557</v>
+        <v>0.1830368086591259</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03526845714600728</v>
+        <v>0.05366758481063793</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5029292853.875887</v>
+        <v>3898048177.540483</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1658962532197655</v>
+        <v>0.1328329331204762</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04651162959390433</v>
+        <v>0.05978298373556709</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3517587634.533783</v>
+        <v>5193912078.141797</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1301727373205416</v>
+        <v>0.1530035321564076</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05013466369190401</v>
+        <v>0.05193767327578588</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4344429546.266891</v>
+        <v>4358149250.961704</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09285271320791869</v>
+        <v>0.09832251482075413</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02688766947321449</v>
+        <v>0.03871288873911262</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1256514549.113703</v>
+        <v>1444216377.309371</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1603073911536</v>
+        <v>0.1739238913972149</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04205897151321823</v>
+        <v>0.03761640276714401</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3479775984.723309</v>
+        <v>3522450541.626447</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1730788040103328</v>
+        <v>0.1088631715450198</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04643512726228866</v>
+        <v>0.04423396248121796</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1477870818.96679</v>
+        <v>1122636416.475081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1190661743445936</v>
+        <v>0.1257305498659723</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05109316556210237</v>
+        <v>0.04848985944760678</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3638789988.093615</v>
+        <v>3965133892.181146</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1288803998199704</v>
+        <v>0.1083407203089313</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05856640756141303</v>
+        <v>0.03967676584395899</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2595052462.02437</v>
+        <v>2766877391.29803</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1796912585881191</v>
+        <v>0.1606978008466809</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03383372766537945</v>
+        <v>0.03020927081247667</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4180662644.904745</v>
+        <v>3933903286.214782</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1695736286863316</v>
+        <v>0.1300952030366226</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04876868776035487</v>
+        <v>0.04002772911997468</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4601603670.92883</v>
+        <v>3992163519.679292</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2101342254798113</v>
+        <v>0.1563970695446131</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02445622948092802</v>
+        <v>0.03244799234626908</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1552028230.275672</v>
+        <v>1146482469.003464</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1194468379115183</v>
+        <v>0.1473772441785782</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04253088850388329</v>
+        <v>0.0446597790949813</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3009296015.356002</v>
+        <v>4466448953.389473</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1545475461566349</v>
+        <v>0.124410218284551</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02130427094645108</v>
+        <v>0.02595625940981647</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1462423232.328931</v>
+        <v>1422776195.065703</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1597695921051647</v>
+        <v>0.1701293084205282</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02976189930356628</v>
+        <v>0.02910494630688228</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3955501204.957188</v>
+        <v>4227259516.884172</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08326579528085774</v>
+        <v>0.1021448414439461</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03921581010985345</v>
+        <v>0.04867117878891928</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2855089759.74934</v>
+        <v>3127028822.311907</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1561528595148201</v>
+        <v>0.1921385307809471</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02444911891589984</v>
+        <v>0.02703430262562345</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3196564324.151677</v>
+        <v>2379257962.395641</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1677163677212224</v>
+        <v>0.1458631326079499</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02753985212548664</v>
+        <v>0.02017848878316869</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1897857869.571938</v>
+        <v>1484950602.51732</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1672183203999509</v>
+        <v>0.1660294726657137</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03033698602743002</v>
+        <v>0.04079026594661121</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4588062740.763954</v>
+        <v>5132934721.231668</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08203319182341537</v>
+        <v>0.08493128367630326</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03512281823243511</v>
+        <v>0.04246364413750732</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4827829951.47652</v>
+        <v>3432419146.747179</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1317742493118489</v>
+        <v>0.1375706393027794</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03561670468514078</v>
+        <v>0.03290003535734892</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4724265564.602774</v>
+        <v>4937847190.795661</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1578613497362498</v>
+        <v>0.1314626134399174</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03188539789766238</v>
+        <v>0.02969354025897859</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5355712119.792566</v>
+        <v>5376118369.96969</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1486546123580992</v>
+        <v>0.1339950070392501</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04526295033448067</v>
+        <v>0.03344529575348468</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2306227627.53779</v>
+        <v>3119800499.327882</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06540756536790872</v>
+        <v>0.06990262728704334</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03816244180075339</v>
+        <v>0.04141354116613752</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4348998244.738118</v>
+        <v>3704944194.650082</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1347471092435973</v>
+        <v>0.0967928837903671</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04310835453439685</v>
+        <v>0.03512427564296717</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1928569116.519835</v>
+        <v>2337487239.201658</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1707817798019428</v>
+        <v>0.1212874462478003</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05579735376208095</v>
+        <v>0.04556498582181246</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3423272014.120816</v>
+        <v>3418399422.561018</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08167518850883081</v>
+        <v>0.06992845214717169</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03377347176513804</v>
+        <v>0.04206917318836093</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3478548924.226608</v>
+        <v>5496247223.441426</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1163200644348664</v>
+        <v>0.1130446702973319</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02625369901110288</v>
+        <v>0.0212679783447616</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1951555449.100401</v>
+        <v>1936790853.845268</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07815216427910031</v>
+        <v>0.1018536887481921</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03457464303037838</v>
+        <v>0.0460932564713501</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2282295035.582228</v>
+        <v>2172101137.026854</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1104233877763899</v>
+        <v>0.0878362773573348</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03559817298601681</v>
+        <v>0.04515458121559243</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3331229991.168115</v>
+        <v>3205382122.242257</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1762385616611133</v>
+        <v>0.1327294082788756</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02696808646578877</v>
+        <v>0.02847188308782106</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2408228768.478927</v>
+        <v>1797176479.467484</v>
       </c>
       <c r="F75" t="n">
-        <v>0.130290649395237</v>
+        <v>0.1129253681414384</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03468264662816854</v>
+        <v>0.03100043346293051</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4125882399.03268</v>
+        <v>3818523974.719723</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0891120592962335</v>
+        <v>0.08876784126247839</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02775934976057953</v>
+        <v>0.03329821198411927</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2085935540.473717</v>
+        <v>1427903910.482319</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1545098101425531</v>
+        <v>0.1410777240761079</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02051122851562499</v>
+        <v>0.02494935291783488</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2900965940.015047</v>
+        <v>4606240667.248413</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09288838525294817</v>
+        <v>0.1267995950787576</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0466082608141784</v>
+        <v>0.04877206811048085</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1677412444.694535</v>
+        <v>1211839433.64547</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1179604248537636</v>
+        <v>0.1500777318471081</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03114686105488594</v>
+        <v>0.02720507101230948</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3540005531.929805</v>
+        <v>5111379922.669868</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09810638018897455</v>
+        <v>0.101267783005436</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02731842000889439</v>
+        <v>0.03345006065675704</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3352177591.352763</v>
+        <v>3765932360.823389</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09759162006751758</v>
+        <v>0.08375979482225097</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02924472977455286</v>
+        <v>0.03273392446478435</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4933604020.548932</v>
+        <v>5600417508.929878</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1918693554981113</v>
+        <v>0.1717924924811693</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02151362159570936</v>
+        <v>0.01859256823719224</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2135771341.531314</v>
+        <v>2351542047.349812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1561299579441502</v>
+        <v>0.122487554957638</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03448242942803303</v>
+        <v>0.04421160843262135</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1861389386.634169</v>
+        <v>1801309045.653426</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09805796947713863</v>
+        <v>0.1193211735859261</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03224202609255515</v>
+        <v>0.03640897951769749</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2426795903.170871</v>
+        <v>3629584580.062171</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1760750150097006</v>
+        <v>0.1456720946723342</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04088906425753238</v>
+        <v>0.04031570101689977</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1879546986.581973</v>
+        <v>2039520025.145898</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1158736438775373</v>
+        <v>0.1051460491458428</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02630060109305162</v>
+        <v>0.02206828687133274</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1079487720.655168</v>
+        <v>922121427.5107156</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1574884883638412</v>
+        <v>0.1577186268569765</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02762450969952977</v>
+        <v>0.0427438091514667</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3555829226.768</v>
+        <v>2829975796.945223</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1688782575349903</v>
+        <v>0.1286076894335993</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03490687786792585</v>
+        <v>0.0267650220317018</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2672672039.636004</v>
+        <v>2681828648.733359</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1377136386647102</v>
+        <v>0.1201901729775704</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02791123459694056</v>
+        <v>0.02759610726456405</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1934974072.606285</v>
+        <v>2110441896.528067</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0851440550990817</v>
+        <v>0.1043212809634822</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04680240084432656</v>
+        <v>0.04692261255473922</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1701518387.257762</v>
+        <v>2058268562.916595</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1592340713081586</v>
+        <v>0.13584489949826</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03968254412060702</v>
+        <v>0.04124799932047091</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2289349045.898861</v>
+        <v>2112763492.635933</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07603527219962833</v>
+        <v>0.0820036868303282</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03750463395512517</v>
+        <v>0.03493681571012416</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3180798752.84359</v>
+        <v>4152628462.182105</v>
       </c>
       <c r="F93" t="n">
-        <v>0.110804901787143</v>
+        <v>0.1375257204263929</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0443279913430757</v>
+        <v>0.05249767724439229</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2391804631.605553</v>
+        <v>1687503439.260196</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1621920102671778</v>
+        <v>0.1586840505925581</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0409813562149228</v>
+        <v>0.03056648656464996</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2482525873.098188</v>
+        <v>2783148998.766168</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1281336906901019</v>
+        <v>0.1071875432526807</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03801226811020111</v>
+        <v>0.04736923375549188</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2398956105.726861</v>
+        <v>1863886966.838813</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1156976367740343</v>
+        <v>0.115313617495572</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04626550978842273</v>
+        <v>0.03559446395424509</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4356848042.135</v>
+        <v>4228169894.09265</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1222444631766709</v>
+        <v>0.1580072007872686</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02332173954763988</v>
+        <v>0.02078740772637859</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3638951400.965797</v>
+        <v>3135616848.152713</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1263547290352667</v>
+        <v>0.1285256111126646</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02582201362140476</v>
+        <v>0.02594028166394938</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2998988330.008267</v>
+        <v>3263094576.306778</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1208824273872626</v>
+        <v>0.09385902885257488</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02758194823947814</v>
+        <v>0.02522350972264549</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4344767335.53548</v>
+        <v>3273417279.87429</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1255783322119973</v>
+        <v>0.1704311664024993</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01929739037692521</v>
+        <v>0.02778391443428541</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2433816119.670081</v>
+        <v>2748169580.430508</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1670526667054203</v>
+        <v>0.1531638965861993</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05713456921213352</v>
+        <v>0.0506914556706128</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_405.xlsx
+++ b/output/fit_clients/fit_round_405.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2225686780.455206</v>
+        <v>1796290748.679101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08220620296633427</v>
+        <v>0.07934143564139695</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03505913574773458</v>
+        <v>0.02828257076365344</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1928793349.433549</v>
+        <v>1933326059.804164</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1799410447033869</v>
+        <v>0.1125369470652473</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04395436124929494</v>
+        <v>0.04819882293532344</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4261122423.262887</v>
+        <v>3740247908.539434</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1384323977986229</v>
+        <v>0.1015391988342545</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03528064827307163</v>
+        <v>0.0268126680602193</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>206</v>
+      </c>
+      <c r="J4" t="n">
+        <v>404</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39.35942541500631</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2644704292.826292</v>
+        <v>3726525877.122836</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1003410715325011</v>
+        <v>0.08273157632995704</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03094954642076586</v>
+        <v>0.03298400792563832</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>164</v>
+      </c>
+      <c r="J5" t="n">
+        <v>405</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1951129463.041822</v>
+        <v>2472023673.909962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1393739406041185</v>
+        <v>0.1171729420926116</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04111120310724651</v>
+        <v>0.05209685460375396</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1977283636.502669</v>
+        <v>1948974924.224075</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1012264318603438</v>
+        <v>0.07112347495796517</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03493128442230366</v>
+        <v>0.04280157903456549</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3761485568.762726</v>
+        <v>3842222629.295937</v>
       </c>
       <c r="F8" t="n">
-        <v>0.18741723213765</v>
+        <v>0.1436790488573357</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02666578877045182</v>
+        <v>0.02649416275087951</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>110</v>
+      </c>
+      <c r="J8" t="n">
+        <v>405</v>
+      </c>
+      <c r="K8" t="n">
+        <v>56.31520980109248</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1543845170.40911</v>
+        <v>2202067641.719215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1525986949294602</v>
+        <v>0.1470604980978322</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03079956103047139</v>
+        <v>0.03172981027466921</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3942701393.267447</v>
+        <v>4014894789.821895</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2034545535019576</v>
+        <v>0.1894338488502367</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04094823454585878</v>
+        <v>0.05186378919979596</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>327</v>
+      </c>
+      <c r="J10" t="n">
+        <v>404</v>
+      </c>
+      <c r="K10" t="n">
+        <v>43.7452358018887</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3563367653.341754</v>
+        <v>3211290360.031108</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1592678971144888</v>
+        <v>0.1208249936508416</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04273002140578269</v>
+        <v>0.04077661805018557</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2053556462.596445</v>
+        <v>2555327980.907734</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1235577133478166</v>
+        <v>0.1433047348241173</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03682390386245729</v>
+        <v>0.03529793520561958</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4733750756.306429</v>
+        <v>4983248975.270106</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08093128373698161</v>
+        <v>0.06157669318291744</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02614220391294494</v>
+        <v>0.02913472631102047</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>211</v>
+      </c>
+      <c r="J13" t="n">
+        <v>405</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2911073276.894714</v>
+        <v>2737287642.970403</v>
       </c>
       <c r="F14" t="n">
-        <v>0.115583285474425</v>
+        <v>0.1598244432411292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03102713227652816</v>
+        <v>0.03084787653795849</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1457567229.525183</v>
+        <v>1699078928.561701</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09311375462311347</v>
+        <v>0.09425719337528683</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03637818825750182</v>
+        <v>0.03299361097998752</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1801119573.145776</v>
+        <v>1747340265.289982</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08401164889319283</v>
+        <v>0.108609256451756</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03674870729822834</v>
+        <v>0.04470722008059285</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3417754561.317635</v>
+        <v>4123482378.460603</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1272289374358055</v>
+        <v>0.1729309837575418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03222544896958774</v>
+        <v>0.04587745104044815</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>195</v>
+      </c>
+      <c r="J17" t="n">
+        <v>405</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3305795956.472731</v>
+        <v>3913727543.874213</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1544793274927357</v>
+        <v>0.1265020497152714</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02789323997293751</v>
+        <v>0.03419473227694107</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>101</v>
+      </c>
+      <c r="J18" t="n">
+        <v>405</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1053515379.051125</v>
+        <v>1043740918.850674</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1581298240748907</v>
+        <v>0.1601440826057371</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02748663928609973</v>
+        <v>0.01976516191451283</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2063103065.044614</v>
+        <v>2294060091.08864</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1351412856010047</v>
+        <v>0.122226381966582</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02726184296870146</v>
+        <v>0.02262718562540089</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2082727137.163687</v>
+        <v>2520163899.553102</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07512133903299502</v>
+        <v>0.07941763531605876</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03568564274568924</v>
+        <v>0.0365286141619225</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3136360780.492587</v>
+        <v>3766118192.669452</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1006730601965342</v>
+        <v>0.08863464470196018</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04724168260851195</v>
+        <v>0.03564847717695622</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>112</v>
+      </c>
+      <c r="J22" t="n">
+        <v>405</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1147715692.200866</v>
+        <v>1318479958.600613</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1721530221458216</v>
+        <v>0.1484274663770966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04858318942564754</v>
+        <v>0.04118700965853029</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3587441629.111784</v>
+        <v>2741679370.139306</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1384751094933887</v>
+        <v>0.1477537236601672</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02995393236374521</v>
+        <v>0.02980003834443473</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>127</v>
+      </c>
+      <c r="J24" t="n">
+        <v>403</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1016096730.502875</v>
+        <v>1271142964.31471</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09832177915040245</v>
+        <v>0.07779592660268302</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02467715831484312</v>
+        <v>0.02822033801375268</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1029150060.149666</v>
+        <v>1400579789.498605</v>
       </c>
       <c r="F26" t="n">
-        <v>0.108742416309</v>
+        <v>0.117991961802836</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03630721675759415</v>
+        <v>0.02351757772044769</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4410764599.00984</v>
+        <v>4544565696.600872</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09779907744682288</v>
+        <v>0.1155768210172787</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02438403268981139</v>
+        <v>0.01713628933755983</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>170</v>
+      </c>
+      <c r="J27" t="n">
+        <v>405</v>
+      </c>
+      <c r="K27" t="n">
+        <v>49.25744195568227</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3567582281.375041</v>
+        <v>2688960104.64123</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1431828880698318</v>
+        <v>0.1368073978364433</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03897948202697248</v>
+        <v>0.03247491185032909</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>402</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5081670402.225192</v>
+        <v>4030671914.640744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1179563292431068</v>
+        <v>0.1404399037030537</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03639659237286367</v>
+        <v>0.03032716807127474</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>342</v>
+      </c>
+      <c r="J29" t="n">
+        <v>405</v>
+      </c>
+      <c r="K29" t="n">
+        <v>46.91004861534491</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1934260753.455923</v>
+        <v>2313757851.719946</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08505033837922607</v>
+        <v>0.1215419163811368</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03390929901600214</v>
+        <v>0.02500201702497054</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1129880011.98183</v>
+        <v>953413694.7508045</v>
       </c>
       <c r="F31" t="n">
-        <v>0.074692132793151</v>
+        <v>0.09804984057943154</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04345452646368189</v>
+        <v>0.03161708479019572</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1349097452.818316</v>
+        <v>1481920774.059712</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07808904546545312</v>
+        <v>0.1201779722516438</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02514135634597737</v>
+        <v>0.03524032851787817</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2217986171.617681</v>
+        <v>2388486170.897462</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1528807504164108</v>
+        <v>0.1843630600911203</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03953986919585046</v>
+        <v>0.04926737717372908</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1237958606.775653</v>
+        <v>1518463832.016014</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1058168978035287</v>
+        <v>0.1197053818030238</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02550993859036339</v>
+        <v>0.01780298643328856</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1315194827.214641</v>
+        <v>1323151490.068462</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1056509793040177</v>
+        <v>0.1158680336875966</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02857060296211465</v>
+        <v>0.03899495060902247</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3009757185.594692</v>
+        <v>2088247333.846133</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1286831071240889</v>
+        <v>0.1579347610123233</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01873815705677909</v>
+        <v>0.02877463383696939</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1846181045.070045</v>
+        <v>2723295406.452592</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06885303921097559</v>
+        <v>0.1058110985396872</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0356165782908397</v>
+        <v>0.04062909768446222</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1618561401.296595</v>
+        <v>1724575161.413161</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08791625161451039</v>
+        <v>0.1120454110050289</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02474283790985154</v>
+        <v>0.02708892370325927</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1600280586.067974</v>
+        <v>1357584585.071218</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1519359827432133</v>
+        <v>0.1793187794661798</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02309514096287053</v>
+        <v>0.03052553123091944</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1148076449.335701</v>
+        <v>1570630325.420964</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1602641326993346</v>
+        <v>0.1144977568277266</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04333349825531949</v>
+        <v>0.03995546425886287</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2060542836.357877</v>
+        <v>2736190881.115984</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1037060963608345</v>
+        <v>0.1462362674438578</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02856566217494851</v>
+        <v>0.02947988751492016</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3622674420.483582</v>
+        <v>3742990838.923612</v>
       </c>
       <c r="F42" t="n">
-        <v>0.116859377234437</v>
+        <v>0.1270425708851262</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03434017094238045</v>
+        <v>0.03356525942565071</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>173</v>
+      </c>
+      <c r="J42" t="n">
+        <v>405</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2003710826.307859</v>
+        <v>1898484442.313973</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1981273984106797</v>
+        <v>0.2020243482482714</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02318566552094639</v>
+        <v>0.02086019612379315</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2147298307.030638</v>
+        <v>2268500705.913143</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09821405058400022</v>
+        <v>0.0990151687550518</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03362174444323381</v>
+        <v>0.02964273825745535</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1559157413.750278</v>
+        <v>1979970944.067293</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1830368086591259</v>
+        <v>0.1324749311296819</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05366758481063793</v>
+        <v>0.04584039800293816</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3898048177.540483</v>
+        <v>5621528406.362143</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1328329331204762</v>
+        <v>0.1252234710651978</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05978298373556709</v>
+        <v>0.04051861294289981</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>243</v>
+      </c>
+      <c r="J46" t="n">
+        <v>405</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5193912078.141797</v>
+        <v>4703334613.583145</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1530035321564076</v>
+        <v>0.1700972701704542</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05193767327578588</v>
+        <v>0.05142614513741027</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>182</v>
+      </c>
+      <c r="J47" t="n">
+        <v>404</v>
+      </c>
+      <c r="K47" t="n">
+        <v>43.38211376202063</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4358149250.961704</v>
+        <v>4306109789.37342</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09832251482075413</v>
+        <v>0.1084816943790653</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03871288873911262</v>
+        <v>0.03620184147473485</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>208</v>
+      </c>
+      <c r="J48" t="n">
+        <v>405</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1444216377.309371</v>
+        <v>1574535727.208486</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1739238913972149</v>
+        <v>0.1612266917573495</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03761640276714401</v>
+        <v>0.03588914052941176</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3522450541.626447</v>
+        <v>3586025193.107068</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1088631715450198</v>
+        <v>0.1644415785732108</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04423396248121796</v>
+        <v>0.04769742459659176</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>139</v>
+      </c>
+      <c r="J50" t="n">
+        <v>405</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1122636416.475081</v>
+        <v>1513284394.434162</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1257305498659723</v>
+        <v>0.1466765661255503</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04848985944760678</v>
+        <v>0.03344199877678473</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2263,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3965133892.181146</v>
+        <v>3976127412.797436</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1083407203089313</v>
+        <v>0.1371980463041318</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03967676584395899</v>
+        <v>0.05227054753199267</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>235</v>
+      </c>
+      <c r="J52" t="n">
+        <v>404</v>
+      </c>
+      <c r="K52" t="n">
+        <v>41.63499746115438</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2766877391.29803</v>
+        <v>3251522445.423032</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1606978008466809</v>
+        <v>0.1875910522751751</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03020927081247667</v>
+        <v>0.02530952103498069</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>55</v>
+      </c>
+      <c r="J53" t="n">
+        <v>401</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3933903286.214782</v>
+        <v>4021456164.437297</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1300952030366226</v>
+        <v>0.1365321119486513</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04002772911997468</v>
+        <v>0.03612751015916116</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>216</v>
+      </c>
+      <c r="J54" t="n">
+        <v>405</v>
+      </c>
+      <c r="K54" t="n">
+        <v>46.87126565253128</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3992163519.679292</v>
+        <v>4365126606.658097</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1563970695446131</v>
+        <v>0.1746503549236315</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03244799234626908</v>
+        <v>0.02159051042518232</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>197</v>
+      </c>
+      <c r="J55" t="n">
+        <v>405</v>
+      </c>
+      <c r="K55" t="n">
+        <v>46.88987703552471</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1146482469.003464</v>
+        <v>1501522026.386837</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1473772441785782</v>
+        <v>0.1403189445666612</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0446597790949813</v>
+        <v>0.05640551914769017</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4466448953.389473</v>
+        <v>2895593064.95184</v>
       </c>
       <c r="F57" t="n">
-        <v>0.124410218284551</v>
+        <v>0.1554341863564105</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02595625940981647</v>
+        <v>0.02120475682392483</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>174</v>
+      </c>
+      <c r="J57" t="n">
+        <v>404</v>
+      </c>
+      <c r="K57" t="n">
+        <v>24.41339232173946</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1422776195.065703</v>
+        <v>1420977744.171487</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1701293084205282</v>
+        <v>0.163496369259542</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02910494630688228</v>
+        <v>0.02862703449126209</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4227259516.884172</v>
+        <v>4778010242.270427</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1021448414439461</v>
+        <v>0.1175568666319724</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04867117878891928</v>
+        <v>0.04479466285325</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>198</v>
+      </c>
+      <c r="J59" t="n">
+        <v>405</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3127028822.311907</v>
+        <v>2337725387.403123</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1921385307809471</v>
+        <v>0.1897054755912428</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02703430262562345</v>
+        <v>0.02535843087191321</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>403</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2379257962.395641</v>
+        <v>2319447268.306747</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1458631326079499</v>
+        <v>0.1765305925470046</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02017848878316869</v>
+        <v>0.02300714350680612</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1484950602.51732</v>
+        <v>1724697159.056592</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1660294726657137</v>
+        <v>0.1452679324584094</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04079026594661121</v>
+        <v>0.03683657828423646</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5132934721.231668</v>
+        <v>5366159460.208201</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08493128367630326</v>
+        <v>0.0684335982865564</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04246364413750732</v>
+        <v>0.03925705564790321</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>202</v>
+      </c>
+      <c r="J63" t="n">
+        <v>404</v>
+      </c>
+      <c r="K63" t="n">
+        <v>44.54162953950114</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3432419146.747179</v>
+        <v>4979020299.315228</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1375706393027794</v>
+        <v>0.1672870070397386</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03290003535734892</v>
+        <v>0.02521011067009224</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>202</v>
+      </c>
+      <c r="J64" t="n">
+        <v>405</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4937847190.795661</v>
+        <v>3672993447.194171</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1314626134399174</v>
+        <v>0.1610289096719927</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02969354025897859</v>
+        <v>0.02408795395389449</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>299</v>
+      </c>
+      <c r="J65" t="n">
+        <v>404</v>
+      </c>
+      <c r="K65" t="n">
+        <v>38.29656379280884</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5376118369.96969</v>
+        <v>5301731550.787495</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1339950070392501</v>
+        <v>0.15482248733161</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03344529575348468</v>
+        <v>0.0375221094163455</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>200</v>
+      </c>
+      <c r="J66" t="n">
+        <v>405</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3119800499.327882</v>
+        <v>2131385491.475095</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06990262728704334</v>
+        <v>0.09796260728424078</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04141354116613752</v>
+        <v>0.04867368876726809</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3704944194.650082</v>
+        <v>4027389082.000453</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0967928837903671</v>
+        <v>0.159480979859281</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03512427564296717</v>
+        <v>0.03192900969406388</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>220</v>
+      </c>
+      <c r="J68" t="n">
+        <v>405</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2337487239.201658</v>
+        <v>2447997394.987392</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1212874462478003</v>
+        <v>0.1793750082366286</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04556498582181246</v>
+        <v>0.05487410586816929</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3418399422.561018</v>
+        <v>3018527567.166657</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06992845214717169</v>
+        <v>0.09779355108548086</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04206917318836093</v>
+        <v>0.03977638201079118</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5496247223.441426</v>
+        <v>4817598288.189332</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1130446702973319</v>
+        <v>0.1285626464304222</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0212679783447616</v>
+        <v>0.02138743264994183</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>286</v>
+      </c>
+      <c r="J71" t="n">
+        <v>405</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1936790853.845268</v>
+        <v>1693882538.231577</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1018536887481921</v>
+        <v>0.09067242409566699</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0460932564713501</v>
+        <v>0.04816685194850241</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3010,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2172101137.026854</v>
+        <v>2499613325.05882</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0878362773573348</v>
+        <v>0.07077813098374482</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04515458121559243</v>
+        <v>0.04321620001351947</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3205382122.242257</v>
+        <v>3224206917.68442</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1327294082788756</v>
+        <v>0.1116684395098959</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02847188308782106</v>
+        <v>0.03546837785362249</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>114</v>
+      </c>
+      <c r="J74" t="n">
+        <v>404</v>
+      </c>
+      <c r="K74" t="n">
+        <v>42.30297285349027</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1797176479.467484</v>
+        <v>1977317615.912011</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1129253681414384</v>
+        <v>0.122601281379372</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03100043346293051</v>
+        <v>0.03219598719279149</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3818523974.719723</v>
+        <v>3617861877.877363</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08876784126247839</v>
+        <v>0.08452274023002004</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03329821198411927</v>
+        <v>0.02137180290597783</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>192</v>
+      </c>
+      <c r="J76" t="n">
+        <v>404</v>
+      </c>
+      <c r="K76" t="n">
+        <v>36.69878471666566</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1427903910.482319</v>
+        <v>2216290801.819375</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1410777240761079</v>
+        <v>0.1802077812373978</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02494935291783488</v>
+        <v>0.02904489107235645</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4606240667.248413</v>
+        <v>4568885454.369982</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1267995950787576</v>
+        <v>0.121131443215416</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04877206811048085</v>
+        <v>0.0448431572806273</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>202</v>
+      </c>
+      <c r="J78" t="n">
+        <v>404</v>
+      </c>
+      <c r="K78" t="n">
+        <v>46.40823480984201</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1211839433.64547</v>
+        <v>1863108684.239549</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1500777318471081</v>
+        <v>0.1677350039484443</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02720507101230948</v>
+        <v>0.02854785063218718</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5111379922.669868</v>
+        <v>4498255073.012876</v>
       </c>
       <c r="F80" t="n">
-        <v>0.101267783005436</v>
+        <v>0.0860248670243579</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03345006065675704</v>
+        <v>0.02537186133989507</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>198</v>
+      </c>
+      <c r="J80" t="n">
+        <v>404</v>
+      </c>
+      <c r="K80" t="n">
+        <v>38.58014376213654</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3765932360.823389</v>
+        <v>4103936004.762461</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08375979482225097</v>
+        <v>0.1007374414054178</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03273392446478435</v>
+        <v>0.0313074603126565</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>188</v>
+      </c>
+      <c r="J81" t="n">
+        <v>405</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5600417508.929878</v>
+        <v>5574675348.549918</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1717924924811693</v>
+        <v>0.1445966156733856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01859256823719224</v>
+        <v>0.02164919859515135</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>277</v>
+      </c>
+      <c r="J82" t="n">
+        <v>404</v>
+      </c>
+      <c r="K82" t="n">
+        <v>45.18706794791058</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2351542047.349812</v>
+        <v>1596845784.056631</v>
       </c>
       <c r="F83" t="n">
-        <v>0.122487554957638</v>
+        <v>0.1377568902140734</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04421160843262135</v>
+        <v>0.04273957708822849</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1801309045.653426</v>
+        <v>1974217832.475019</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1193211735859261</v>
+        <v>0.1176351683116471</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03640897951769749</v>
+        <v>0.05042267451466004</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3629584580.062171</v>
+        <v>3292860282.12343</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1456720946723342</v>
+        <v>0.1689271340212324</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04031570101689977</v>
+        <v>0.04123119581031186</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2039520025.145898</v>
+        <v>2795292045.477229</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1051460491458428</v>
+        <v>0.1710934018777134</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02206828687133274</v>
+        <v>0.02115715490333273</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>922121427.5107156</v>
+        <v>1118376454.178166</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1577186268569765</v>
+        <v>0.1520562324500807</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0427438091514667</v>
+        <v>0.02787352179055475</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2829975796.945223</v>
+        <v>3468803439.092016</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1286076894335993</v>
+        <v>0.1310461023472472</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0267650220317018</v>
+        <v>0.02592164527442731</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2681828648.733359</v>
+        <v>2355212198.052141</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1201901729775704</v>
+        <v>0.1268355259161646</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02759610726456405</v>
+        <v>0.0324771987035586</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2110441896.528067</v>
+        <v>1982137282.750586</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1043212809634822</v>
+        <v>0.1218235661442423</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04692261255473922</v>
+        <v>0.03432372947786434</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2058268562.916595</v>
+        <v>1613726703.886543</v>
       </c>
       <c r="F91" t="n">
-        <v>0.13584489949826</v>
+        <v>0.1944541852186135</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04124799932047091</v>
+        <v>0.05133972254514672</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2112763492.635933</v>
+        <v>2135686600.35926</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0820036868303282</v>
+        <v>0.1085914665208407</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03493681571012416</v>
+        <v>0.03313835332977832</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4152628462.182105</v>
+        <v>3543266075.545363</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1375257204263929</v>
+        <v>0.1425073525104188</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05249767724439229</v>
+        <v>0.05295330677082451</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>194</v>
+      </c>
+      <c r="J93" t="n">
+        <v>404</v>
+      </c>
+      <c r="K93" t="n">
+        <v>34.04803616463142</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1687503439.260196</v>
+        <v>1656748564.149057</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1586840505925581</v>
+        <v>0.1290411141063613</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03056648656464996</v>
+        <v>0.03557786436132873</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2783148998.766168</v>
+        <v>3229814889.592923</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1071875432526807</v>
+        <v>0.1228015205778861</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04736923375549188</v>
+        <v>0.03269403043269151</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1863886966.838813</v>
+        <v>1654196211.203085</v>
       </c>
       <c r="F96" t="n">
-        <v>0.115313617495572</v>
+        <v>0.1048467603445751</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03559446395424509</v>
+        <v>0.04171523103987535</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4228169894.09265</v>
+        <v>4776263030.128816</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1580072007872686</v>
+        <v>0.1167033348783275</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02078740772637859</v>
+        <v>0.02871280886429624</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>211</v>
+      </c>
+      <c r="J97" t="n">
+        <v>404</v>
+      </c>
+      <c r="K97" t="n">
+        <v>46.7701937474309</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3135616848.152713</v>
+        <v>3262547082.195593</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1285256111126646</v>
+        <v>0.1006862947841043</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02594028166394938</v>
+        <v>0.02567308416307643</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="n">
+        <v>36.50639748394789</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3263094576.306778</v>
+        <v>2242920265.89515</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09385902885257488</v>
+        <v>0.09251385435767968</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02522350972264549</v>
+        <v>0.02194534011312102</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3273417279.87429</v>
+        <v>2998498086.865195</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1704311664024993</v>
+        <v>0.1628640060994877</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02778391443428541</v>
+        <v>0.02303418360182054</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>188</v>
+      </c>
+      <c r="J100" t="n">
+        <v>403</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2748169580.430508</v>
+        <v>3075354676.499303</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1531638965861993</v>
+        <v>0.2146054372647158</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0506914556706128</v>
+        <v>0.05350113246550391</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
